--- a/【北京】-郝泉宇进度表.xlsx
+++ b/【北京】-郝泉宇进度表.xlsx
@@ -1,107 +1,240 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16220" windowHeight="7770"/>
+    <workbookView windowWidth="17820" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="进度表" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计划完成的内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成的情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>完成的时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>需要什么帮助</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>今天的收获是什么</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>第一天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将良仓首页标题栏和导航栏轮播图写完</t>
   </si>
   <si>
     <t>第二天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将首页剩余部分完成</t>
   </si>
   <si>
     <t>第三天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加页面与后台交互ajax请求数据</t>
   </si>
   <si>
     <t>第四天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并项目并检查修改bug</t>
   </si>
   <si>
     <t>第五天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目答辩</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,10 +244,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,12 +436,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -135,28 +688,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="46" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 6" xfId="1" builtinId="49"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <i val="0"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFD7D7D7"/>
         </patternFill>
       </fill>
@@ -167,9 +767,7 @@
         <i val="0"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
+        <patternFill patternType="none"/>
       </fill>
     </dxf>
   </dxfs>
@@ -182,9 +780,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -233,7 +828,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,105 +1037,110 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.6328125" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="16.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.7222222222222" customWidth="1"/>
+    <col min="2" max="2" width="22.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="22.7222222222222" customWidth="1"/>
+    <col min="4" max="4" width="16.5462962962963" customWidth="1"/>
+    <col min="5" max="5" width="17.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="23.7222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="28" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" ht="30" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" ht="30" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="5" ht="30" customHeight="1" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+    <row r="6" ht="30" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/【北京】-郝泉宇进度表.xlsx
+++ b/【北京】-郝泉宇进度表.xlsx
@@ -37,13 +37,13 @@
     <t>第一天</t>
   </si>
   <si>
-    <t>将良仓首页标题栏和导航栏轮播图写完</t>
+    <t>将良仓首页、标题栏、导航和栏尾部（共用部分）写完</t>
   </si>
   <si>
     <t>第二天</t>
   </si>
   <si>
-    <t>将首页剩余部分完成</t>
+    <t>将静态页面剩余部分完成</t>
   </si>
   <si>
     <t>第三天</t>
@@ -69,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -106,6 +106,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -128,47 +212,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,60 +233,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,181 +249,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +434,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,7 +491,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,22 +500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,36 +521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/【北京】-郝泉宇进度表.xlsx
+++ b/【北京】-郝泉宇进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>将良仓首页、标题栏、导航和栏尾部（共用部分）写完</t>
+  </si>
+  <si>
+    <t>既定目标基本完成不过页面还是有bug</t>
+  </si>
+  <si>
+    <t>页面布局还是不太熟练，jq使用还不太熟练</t>
   </si>
   <si>
     <t>第二天</t>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,59 +97,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,40 +162,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,7 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,7 +202,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,175 +255,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,17 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,8 +461,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,33 +517,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,137 +560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -696,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,7 +1055,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1086,17 +1095,23 @@
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4">
+        <v>43038.9166666667</v>
+      </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1105,10 +1120,10 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1117,10 +1132,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1129,10 +1144,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【北京】-郝泉宇进度表.xlsx
+++ b/【北京】-郝泉宇进度表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17820" windowHeight="7800"/>
+    <workbookView windowWidth="18468" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="进度表" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>将静态页面剩余部分完成</t>
+  </si>
+  <si>
+    <t>静态页面基本完成，首页获取后台商品已经完成。</t>
+  </si>
+  <si>
+    <t>基本了解了与后台的交互，成功获取到后台数据。</t>
   </si>
   <si>
     <t>第三天</t>
@@ -75,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -104,13 +110,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -118,8 +117,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,25 +138,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,71 +180,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -261,175 +267,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +446,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -490,56 +546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,16 +566,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,119 +584,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,6 +711,9 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,7 +1064,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1113,17 +1122,23 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>43038.875</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1132,10 +1147,10 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1144,10 +1159,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【北京】-郝泉宇进度表.xlsx
+++ b/【北京】-郝泉宇进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -62,6 +62,16 @@
   </si>
   <si>
     <t>添加页面与后台交互ajax请求数据</t>
+  </si>
+  <si>
+    <t>后台交互基本完成
+，还剩余一个页面需要完成，项目合并已经开始，页面还有些许bug</t>
+  </si>
+  <si>
+    <t>页面添加购物车有些问题</t>
+  </si>
+  <si>
+    <t>对于获取后台数据的操作基本掌握。</t>
   </si>
   <si>
     <t>第四天</t>
@@ -81,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -103,6 +113,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -110,7 +157,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,15 +242,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,98 +255,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -261,181 +271,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,11 +459,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +515,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -499,26 +539,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,21 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -554,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1074,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1126,7 +1136,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5">
-        <v>43038.875</v>
+        <v>43039.875</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
@@ -1140,17 +1150,25 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>43040.875</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1159,10 +1177,10 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>

--- a/【北京】-郝泉宇进度表.xlsx
+++ b/【北京】-郝泉宇进度表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>日期</t>
   </si>
@@ -78,6 +78,13 @@
   </si>
   <si>
     <t>合并项目并检查修改bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">项目基本完成，购物车功能缺失，用户名由于使用cookie只有在火狐浏览器中有用
+</t>
+  </si>
+  <si>
+    <t>cookie不好用，js合并易出问题</t>
   </si>
   <si>
     <t>第五天</t>
@@ -91,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -112,6 +119,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -126,6 +148,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -134,79 +163,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,44 +262,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -271,19 +278,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,49 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,103 +416,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +477,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,17 +546,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,39 +563,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1081,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1170,17 +1177,23 @@
       <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4">
+        <v>43041.875</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
